--- a/rhla_analysis/rhla1_3_uniform_result/k7.xlsx
+++ b/rhla_analysis/rhla1_3_uniform_result/k7.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.001864190280769474</v>
+        <v>0.001864190280769469</v>
       </c>
       <c r="B2" t="n">
         <v>0.08754928755422479</v>
@@ -466,12 +466,12 @@
         <v>0.1615515771526002</v>
       </c>
       <c r="D2" t="n">
-        <v>46.96370775953593</v>
+        <v>46.96370775953605</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.002219032344724074</v>
+        <v>0.002219032344724069</v>
       </c>
       <c r="B3" t="n">
         <v>0.09558851461663351</v>
@@ -480,12 +480,12 @@
         <v>0.1432225063938619</v>
       </c>
       <c r="D3" t="n">
-        <v>43.07666575654151</v>
+        <v>43.0766657565416</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.001800144090411225</v>
+        <v>0.001800144090411233</v>
       </c>
       <c r="B4" t="n">
         <v>0.085147067003239</v>
@@ -494,12 +494,12 @@
         <v>0.1479113384484229</v>
       </c>
       <c r="D4" t="n">
-        <v>47.30013972591939</v>
+        <v>47.30013972591918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.001912457843085415</v>
+        <v>0.001912457843085416</v>
       </c>
       <c r="B5" t="n">
         <v>0.08718753226372615</v>
@@ -508,26 +508,26 @@
         <v>0.1483375959079284</v>
       </c>
       <c r="D5" t="n">
-        <v>45.58925708033615</v>
+        <v>45.58925708033612</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0009839473391759195</v>
+        <v>0.0009839473391759159</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0851306460752347</v>
+        <v>0.08513064607523471</v>
       </c>
       <c r="C6" t="n">
         <v>0.155157715260017</v>
       </c>
       <c r="D6" t="n">
-        <v>86.51951449610478</v>
+        <v>86.51951449610512</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.001959389120040455</v>
+        <v>0.001959389120040461</v>
       </c>
       <c r="B7" t="n">
         <v>0.08693860832605736</v>
@@ -536,12 +536,12 @@
         <v>0.1491901108269395</v>
       </c>
       <c r="D7" t="n">
-        <v>44.37026185195025</v>
+        <v>44.3702618519501</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.003958317178143198</v>
+        <v>0.003958317178143184</v>
       </c>
       <c r="B8" t="n">
         <v>0.08360146138459222</v>
@@ -550,12 +550,12 @@
         <v>0.1504688832054561</v>
       </c>
       <c r="D8" t="n">
-        <v>21.12045539104795</v>
+        <v>21.12045539104802</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.00148031261376992</v>
+        <v>0.001480312613769925</v>
       </c>
       <c r="B9" t="n">
         <v>0.085237547418229</v>
@@ -564,26 +564,26 @@
         <v>0.1462063086104007</v>
       </c>
       <c r="D9" t="n">
-        <v>57.5807749156133</v>
+        <v>57.58077491561311</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.002258703601502277</v>
+        <v>0.002258703601502308</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08775023748248365</v>
+        <v>0.08775023748248366</v>
       </c>
       <c r="C10" t="n">
         <v>0.1368286445012788</v>
       </c>
       <c r="D10" t="n">
-        <v>38.84982404248191</v>
+        <v>38.84982404248139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0008850070773885253</v>
+        <v>0.0008850070773885216</v>
       </c>
       <c r="B11" t="n">
         <v>0.08719895821852185</v>
@@ -592,7 +592,7 @@
         <v>0.1402387041773231</v>
       </c>
       <c r="D11" t="n">
-        <v>98.52910834998983</v>
+        <v>98.52910834999024</v>
       </c>
     </row>
   </sheetData>
